--- a/Docs/Báo cáo kế hoạch.xlsx
+++ b/Docs/Báo cáo kế hoạch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\New folder\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\LapTrinhMang\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>BÁO CÁO KẾ HOẠCH CÔNG VIỆC HÀNG TUẦN</t>
   </si>
@@ -198,14 +198,17 @@
     <t>Viết bảo cáo bản Word ghi lại chi tiết những phần đã làm về TCP IP, Server/Client</t>
   </si>
   <si>
-    <t>1106/2023</t>
+    <t>Thêm tính năng</t>
+  </si>
+  <si>
+    <t>Thêm tính năng truyền File giữa 2 đối tượng.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +271,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -322,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -360,6 +370,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,7 +663,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1113,18 +1132,26 @@
       <c r="F27" s="13">
         <v>45088</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>57</v>
+      <c r="G27" s="13">
+        <v>45088</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D28" s="5"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+    <row r="28" spans="3:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="C28" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D29" s="5"/>
